--- a/MainBoard/Discrepancy Log.xlsx
+++ b/MainBoard/Discrepancy Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\Documents\GitHub\inspireFly-pocketqubeBoards\MainBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E02A29-D593-474D-979C-98EB355A7FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF717710-9E68-4306-BCED-870DCFDA6382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date Found</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>V0.1 will have 3 mil traces, had to pay additional 30 bucks :(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjust Thermistor holes to clearly state PTH style and to fit within JLC's capablities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjust footprint in inspirefly library </t>
   </si>
 </sst>
 </file>
@@ -375,17 +381,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.53125" bestFit="1" customWidth="1"/>
   </cols>
@@ -422,6 +428,18 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>46037</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
